--- a/Assets/Data/DataTable/02_Skill_Table.xlsx
+++ b/Assets/Data/DataTable/02_Skill_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdw33\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B38C7415-D581-4AAF-AF18-E6369FD63514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1913D5A8-10F3-4B08-8233-790E5C03B159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B5397950-1C80-4B01-B947-A4015F39B3CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B5397950-1C80-4B01-B947-A4015F39B3CD}"/>
   </bookViews>
   <sheets>
     <sheet name="!Logic" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="184">
   <si>
     <t>Skill_Table</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -102,24 +102,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Damage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Enemy_Single</t>
   </si>
   <si>
     <t>Enemy_All</t>
   </si>
   <si>
-    <t>Offensive_Power</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Self</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Ally_All</t>
   </si>
   <si>
@@ -127,10 +115,6 @@
   </si>
   <si>
     <t>Ally_Single</t>
-  </si>
-  <si>
-    <t>Defensive_Power</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터</t>
@@ -513,10 +497,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>enum:effect1_type:Damage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬1 지속 턴</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -558,18 +538,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>enum:Effect2_Targer:Enemy_Single</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum:Effect1_Targer:Enemy_Single</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum:effect2_type:Damage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>칼럼명</t>
   </si>
   <si>
@@ -686,6 +654,26 @@
   </si>
   <si>
     <t>두 번째 효과의 지속 시간 (턴 단위)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼럼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:EFFECT1_TYPE:DAMAGE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:EFFECT2_TYPE:DAMAGE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:EFFECT1_TARGET:ENEMY_SINGLE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:EFFECT2_TARGET:ENEMY_SINGLE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -858,7 +846,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -981,6 +969,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -990,7 +1050,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1078,15 +1138,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1111,27 +1162,15 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1139,12 +1178,45 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1484,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9A9631-B89D-4555-BF41-645689E096BC}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1507,339 +1579,374 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
+      <c r="A1" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="51"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>130</v>
+      <c r="A2" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>126</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>36</v>
+        <v>145</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>130</v>
+      <c r="A3" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>126</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>114</v>
+        <v>147</v>
+      </c>
+      <c r="G3" s="50">
+        <v>1</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>110</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>131</v>
+      <c r="A4" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>127</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>116</v>
+        <v>149</v>
+      </c>
+      <c r="G4" s="50">
+        <v>2</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>112</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>130</v>
+      <c r="A5" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>126</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>119</v>
+        <v>151</v>
+      </c>
+      <c r="G5" s="50">
+        <v>3</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>161</v>
+      <c r="A6" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>153</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="50" t="s">
-        <v>121</v>
+        <v>154</v>
+      </c>
+      <c r="G6" s="50">
+        <v>4</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>117</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>128</v>
+      <c r="A7" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>124</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="50" t="s">
-        <v>123</v>
+        <v>157</v>
+      </c>
+      <c r="G7" s="50">
+        <v>5</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>119</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>131</v>
+      <c r="B8" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>127</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>169</v>
+      <c r="B9" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>128</v>
+      <c r="A10" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>124</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
+        <v>164</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>174</v>
+      <c r="A11" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>166</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>36</v>
+        <v>167</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>128</v>
+      <c r="A12" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>124</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="H12" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" s="44" t="s">
-        <v>125</v>
+        <v>169</v>
+      </c>
+      <c r="G12" s="50">
+        <v>1</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>131</v>
+      <c r="A13" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>127</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="H13" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I13" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="44" t="s">
-        <v>107</v>
+        <v>178</v>
+      </c>
+      <c r="G13" s="50">
+        <v>2</v>
+      </c>
+      <c r="H13" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>181</v>
+      <c r="A14" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>173</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="H14" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" s="44" t="s">
-        <v>110</v>
+        <v>174</v>
+      </c>
+      <c r="G14" s="50">
+        <v>3</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>128</v>
+      <c r="A15" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>124</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="H15" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" s="44" t="s">
-        <v>111</v>
+        <v>176</v>
+      </c>
+      <c r="G15" s="50">
+        <v>4</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="16:18" ht="97.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1853,8 +1960,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G10:J10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1879,87 +1986,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="A1" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
     </row>
     <row r="2" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="G3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="I3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="J3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D4" s="19">
         <v>1</v>
@@ -1968,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G4" s="22">
         <v>0.5</v>
@@ -1979,18 +2086,18 @@
       <c r="K4" s="21"/>
       <c r="L4" s="22"/>
       <c r="M4" s="23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D5" s="19">
         <v>1</v>
@@ -1999,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G5" s="22">
         <v>1</v>
@@ -2010,18 +2117,18 @@
       <c r="K5" s="21"/>
       <c r="L5" s="22"/>
       <c r="M5" s="23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D6" s="19">
         <v>1</v>
@@ -2030,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G6" s="22">
         <v>1.5</v>
@@ -2041,18 +2148,18 @@
       <c r="K6" s="21"/>
       <c r="L6" s="22"/>
       <c r="M6" s="23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" s="19">
         <v>1</v>
@@ -2061,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G7" s="22">
         <v>2</v>
@@ -2072,18 +2179,18 @@
       <c r="K7" s="21"/>
       <c r="L7" s="22"/>
       <c r="M7" s="24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D8" s="19">
         <v>1</v>
@@ -2092,7 +2199,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G8" s="22">
         <v>0.5</v>
@@ -2103,18 +2210,18 @@
       <c r="K8" s="21"/>
       <c r="L8" s="22"/>
       <c r="M8" s="23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D9" s="19">
         <v>1</v>
@@ -2123,13 +2230,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G9" s="22">
         <v>0.3</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I9" s="22">
         <v>1</v>
@@ -2138,24 +2245,24 @@
         <v>3</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L9" s="22">
         <v>0.7</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" s="19">
         <v>1</v>
@@ -2164,13 +2271,13 @@
         <v>1</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10" s="22">
         <v>0.3</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I10" s="22">
         <v>1</v>
@@ -2179,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L10" s="22"/>
       <c r="M10" s="24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D11" s="19">
         <v>1</v>
@@ -2203,13 +2310,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G11" s="22">
         <v>1.1000000000000001</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I11" s="22">
         <v>1</v>
@@ -2218,24 +2325,24 @@
         <v>3</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L11" s="22">
         <v>0.7</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D12" s="19">
         <v>1</v>
@@ -2244,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G12" s="22">
         <v>1.5</v>
@@ -2255,18 +2362,18 @@
       <c r="K12" s="21"/>
       <c r="L12" s="22"/>
       <c r="M12" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>65</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>69</v>
       </c>
       <c r="D13" s="19">
         <v>1</v>
@@ -2275,13 +2382,13 @@
         <v>2</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G13" s="22">
         <v>-0.5</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I13" s="22">
         <v>1</v>
@@ -2290,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L13" s="22">
         <v>1.5</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2312,8 +2419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CBDFF2-7524-4AD5-B513-A4E52FA90550}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2351,94 +2458,94 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="33"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="D2" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" s="39" t="s">
+      <c r="E2" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" s="39" t="s">
+      <c r="L2" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="K2" s="39" t="s">
+      <c r="N2" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="L2" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="N3" s="35" t="s">
-        <v>129</v>
+      <c r="E3" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2490,16 +2597,16 @@
         <v>20010001</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>16</v>
+        <v>77</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
       </c>
       <c r="F5" s="7">
         <v>1</v>
@@ -2507,8 +2614,8 @@
       <c r="G5" s="8">
         <v>0</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>17</v>
+      <c r="H5" s="9">
+        <v>1</v>
       </c>
       <c r="I5" s="10">
         <v>0.5</v>
@@ -2524,16 +2631,16 @@
         <v>20010002</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>16</v>
+        <v>78</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
@@ -2541,8 +2648,8 @@
       <c r="G6" s="8">
         <v>0</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>18</v>
+      <c r="H6" s="9">
+        <v>2</v>
       </c>
       <c r="I6" s="10">
         <v>1</v>
@@ -2558,16 +2665,16 @@
         <v>20020001</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>16</v>
+        <v>79</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
@@ -2575,8 +2682,8 @@
       <c r="G7" s="8">
         <v>0</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>18</v>
+      <c r="H7" s="9">
+        <v>2</v>
       </c>
       <c r="I7" s="10">
         <v>1.5</v>
@@ -2592,16 +2699,16 @@
         <v>20020002</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>16</v>
+        <v>80</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
@@ -2609,8 +2716,8 @@
       <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>17</v>
+      <c r="H8" s="9">
+        <v>1</v>
       </c>
       <c r="I8" s="10">
         <v>2</v>
@@ -2626,16 +2733,16 @@
         <v>20030001</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>19</v>
+        <v>81</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
@@ -2643,8 +2750,8 @@
       <c r="G9" s="8">
         <v>3</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>20</v>
+      <c r="H9" s="9">
+        <v>3</v>
       </c>
       <c r="I9" s="10">
         <v>0.5</v>
@@ -2660,16 +2767,16 @@
         <v>20030002</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>16</v>
+        <v>82</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
@@ -2677,14 +2784,14 @@
       <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>17</v>
+      <c r="H10" s="9">
+        <v>1</v>
       </c>
       <c r="I10" s="10">
         <v>0.3</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>16</v>
+      <c r="J10" s="12">
+        <v>1</v>
       </c>
       <c r="K10" s="6">
         <v>1</v>
@@ -2692,8 +2799,8 @@
       <c r="L10" s="6">
         <v>3</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>17</v>
+      <c r="M10" s="9">
+        <v>1</v>
       </c>
       <c r="N10" s="6">
         <v>0.7</v>
@@ -2704,16 +2811,16 @@
         <v>20040001</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>19</v>
+        <v>83</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2</v>
       </c>
       <c r="F11" s="7">
         <v>1</v>
@@ -2721,14 +2828,14 @@
       <c r="G11" s="8">
         <v>1</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>21</v>
+      <c r="H11" s="9">
+        <v>5</v>
       </c>
       <c r="I11" s="10">
         <v>0.3</v>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>22</v>
+      <c r="J11" s="12">
+        <v>4</v>
       </c>
       <c r="K11" s="6">
         <v>1</v>
@@ -2736,8 +2843,8 @@
       <c r="L11" s="6">
         <v>0</v>
       </c>
-      <c r="M11" s="9" t="s">
-        <v>23</v>
+      <c r="M11" s="9">
+        <v>4</v>
       </c>
       <c r="N11" s="6"/>
     </row>
@@ -2746,16 +2853,16 @@
         <v>20040002</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>16</v>
+        <v>84</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
       </c>
       <c r="F12" s="7">
         <v>1</v>
@@ -2763,14 +2870,14 @@
       <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>17</v>
+      <c r="H12" s="9">
+        <v>1</v>
       </c>
       <c r="I12" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J12" s="12" t="s">
-        <v>16</v>
+      <c r="J12" s="12">
+        <v>1</v>
       </c>
       <c r="K12" s="6">
         <v>1</v>
@@ -2778,8 +2885,8 @@
       <c r="L12" s="6">
         <v>3</v>
       </c>
-      <c r="M12" s="9" t="s">
-        <v>17</v>
+      <c r="M12" s="9">
+        <v>1</v>
       </c>
       <c r="N12" s="6">
         <v>0.7</v>
@@ -2790,16 +2897,16 @@
         <v>20050001</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>16</v>
+        <v>85</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
       </c>
       <c r="F13" s="7">
         <v>1</v>
@@ -2807,8 +2914,8 @@
       <c r="G13" s="8">
         <v>0</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>17</v>
+      <c r="H13" s="9">
+        <v>1</v>
       </c>
       <c r="I13" s="10">
         <v>1.5</v>
@@ -2824,16 +2931,16 @@
         <v>20050002</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>24</v>
+        <v>86</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3</v>
       </c>
       <c r="F14" s="7">
         <v>1</v>
@@ -2841,14 +2948,14 @@
       <c r="G14" s="8">
         <v>2</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>17</v>
+      <c r="H14" s="9">
+        <v>1</v>
       </c>
       <c r="I14" s="10">
         <v>-0.5</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>16</v>
+      <c r="J14" s="12">
+        <v>1</v>
       </c>
       <c r="K14" s="6">
         <v>1</v>
@@ -2856,8 +2963,8 @@
       <c r="L14" s="6">
         <v>0</v>
       </c>
-      <c r="M14" s="9" t="s">
-        <v>17</v>
+      <c r="M14" s="9">
+        <v>1</v>
       </c>
       <c r="N14" s="6">
         <v>1.5</v>

--- a/Assets/Data/DataTable/02_Skill_Table.xlsx
+++ b/Assets/Data/DataTable/02_Skill_Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdw33\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1913D5A8-10F3-4B08-8233-790E5C03B159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8D260E7-370C-40EE-BE34-C2C22A81C950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B5397950-1C80-4B01-B947-A4015F39B3CD}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="!Skill_Rule" sheetId="3" r:id="rId2"/>
     <sheet name="Skill_Table" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,363 +38,215 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="184">
-  <si>
-    <t>Skill_Table</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="179">
+  <si>
+    <t>칼럼명</t>
+  </si>
+  <si>
+    <t>역할</t>
+  </si>
+  <si>
+    <t>자료형</t>
+  </si>
+  <si>
+    <t>테이블 관계</t>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>Skill_Target_Type [Enum테이블]</t>
   </si>
   <si>
     <t>Skill_ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 ID</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>스킬의 고유 식별자. 8자리 ID 규칙을 따름</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>칼럼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상</t>
   </si>
   <si>
     <t>Skill_Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 이름</t>
+  </si>
+  <si>
+    <t>게임 내 표시될 스킬의 이름</t>
+  </si>
+  <si>
+    <t>Enemy_Single</t>
+  </si>
+  <si>
+    <t>적 단일</t>
+  </si>
+  <si>
+    <t>전투 중 적 하나를 단일 대상으로 지정하여 효과를 적용합니다.</t>
   </si>
   <si>
     <t>Skill_CostAP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 비용</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>스킬 사용 시 소모되는 행동력(AP)</t>
+  </si>
+  <si>
+    <t>Enemy_All</t>
+  </si>
+  <si>
+    <t>적 전체</t>
+  </si>
+  <si>
+    <t>전투에 참여 중인 모든 적에게 동시에 효과를 적용합니다.</t>
   </si>
   <si>
     <t>Skill_EffectDesc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 설명</t>
+  </si>
+  <si>
+    <t>툴팁 등에서 사용될 스킬 효과 설명</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>본인</t>
+  </si>
+  <si>
+    <t>스킬을 시전한 자신에게만 효과를 적용합니다.</t>
   </si>
   <si>
     <t>Effect1_Type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 효과</t>
+  </si>
+  <si>
+    <t>enum:EFFECT_TYPE</t>
+  </si>
+  <si>
+    <t>첫 번째 효과의 종류 (예: 데미지, 버프 등)</t>
+  </si>
+  <si>
+    <t>Ally_Single</t>
+  </si>
+  <si>
+    <t>아군 단일</t>
+  </si>
+  <si>
+    <t>아군 중 하나를 선택하여 단일 대상에게만 효과를 적용합니다.</t>
   </si>
   <si>
     <t>Effect1_Chance</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 적용 확률</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>첫 번째 효과가 적용될 확률 (0.0~1.0)</t>
+  </si>
+  <si>
+    <t>Ally_All</t>
+  </si>
+  <si>
+    <t>아군 전체</t>
+  </si>
+  <si>
+    <t>모든 아군에게 동시에 효과를 적용합니다.</t>
   </si>
   <si>
     <t>Effect1_Duration_Turns</t>
   </si>
   <si>
-    <t>Effect1_Target</t>
+    <t>스킬 지속 턴</t>
+  </si>
+  <si>
+    <t>첫 번째 효과의 지속 시간 (턴 단위)</t>
+  </si>
+  <si>
+    <t>Effect1_Target_Type</t>
+  </si>
+  <si>
+    <t>스킬1 적용 타겟</t>
+  </si>
+  <si>
+    <t>enum:TARGET_TYPE</t>
+  </si>
+  <si>
+    <t>첫 번째 효과의 대상 (예: 적 단일, 아군 전체 등)</t>
   </si>
   <si>
     <t>Effect1_Value</t>
+  </si>
+  <si>
+    <t>스킬 1 공격 계수</t>
+  </si>
+  <si>
+    <t>공격력에 곱해지는 배율 또는 고정 수치</t>
+  </si>
+  <si>
+    <t>Skill_Effect_Type [Enum테이블]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Effect2_Type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 번째 효과의 종류 (선택적, 예: 상태이상 등)</t>
+  </si>
+  <si>
+    <t>스테이터스</t>
   </si>
   <si>
     <t>Effect2_Chance</t>
+  </si>
+  <si>
+    <t>두 번째 효과가 적용될 확률 (0.0~1.0)</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>공격 피해</t>
+  </si>
+  <si>
+    <t>대상에게 직접적인 피해를 입히는 기본적인 공격 효과입니다. 
+계산된 데미지는 방어력에 따라 달라질 수 있습니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Effect2_Duration_Turns</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect2_Target</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect2_Value</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy_Single</t>
-  </si>
-  <si>
-    <t>Enemy_All</t>
-  </si>
-  <si>
-    <t>Ally_All</t>
-  </si>
-  <si>
-    <t>Cleanse</t>
-  </si>
-  <si>
-    <t>Ally_Single</t>
-  </si>
-  <si>
-    <t>캐릭터</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬</t>
-  </si>
-  <si>
-    <t>효과1</t>
-  </si>
-  <si>
-    <t>효과1 확률</t>
-  </si>
-  <si>
-    <t>효과 1턴 유지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과1 대상</t>
-  </si>
-  <si>
-    <t>효과1 계수</t>
-  </si>
-  <si>
-    <t>효과2</t>
-  </si>
-  <si>
-    <t>효과2 확률</t>
-  </si>
-  <si>
-    <t>효과2 대상</t>
-  </si>
-  <si>
-    <t>효과2 계수</t>
-  </si>
-  <si>
-    <t>설명</t>
-  </si>
-  <si>
-    <t>소총병</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3연사 사격</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>대미지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>적 단일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>단일 적을 대상으로 50% 계수의 3회 연속 사격을 가하여 누적 피해를 줍니다.(총 150% 대미지)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>샷건 발사</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>적 전체</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 적을 대상으로 100% 피해를 가하는 광역 공격입니다.</t>
-  </si>
-  <si>
-    <t>스나이퍼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>궤도 연발 포격</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2초 후 궤도에서 적 전체에게 150% 피해를 주는 폭격을 가합니다.</t>
-  </si>
-  <si>
-    <t>집중 사격</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>단일 적에게 200% 피해를 주는 고정 저격 스킬입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염방사병</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염 강화</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>본인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신에게 3턴 동안 화염 속성 공격력이 50% 증가하는 버프를 부여합니다.</t>
-  </si>
-  <si>
-    <t>소이 수류탄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>단일 적에게 30% 공격력 기반 화염 장판을 생성하고, 3턴간 70%의 화상 피해를 입힙니다.</t>
-  </si>
-  <si>
-    <t>커미사르</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>명예의 깃발</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군 전체</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태이상 해제</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군 단일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군 전체에게 1턴간 공격력 30% 증가 및 아군 단일에게 상태이상 해제 효과를 부여합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염 충전 사격</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>단일 적에게 110% 화염 피해를 가하고, 3턴간 70% 확률로 화상 상태를 부여합니다.</t>
-  </si>
-  <si>
-    <t>대전차병</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3회 연속 랜덤 타격</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>랜덤 적 3체에게 150% 계수의 연속 피해를 주는 변칙적인 고위력 스킬입니다.</t>
-  </si>
-  <si>
-    <t>강화 탄두 발사</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>단일 적에게 방어력을 50% 감소시키고, 150% 피해를 주는 기술입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_NAME_2001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_NAME_2002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_NAME_2003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_NAME_2004</t>
-  </si>
-  <si>
-    <t>Skill_NAME_2005</t>
-  </si>
-  <si>
-    <t>Skill_NAME_2006</t>
-  </si>
-  <si>
-    <t>Skill_NAME_2007</t>
-  </si>
-  <si>
-    <t>Skill_NAME_2008</t>
-  </si>
-  <si>
-    <t>Skill_NAME_2009</t>
-  </si>
-  <si>
-    <t>Skill_NAME_2010</t>
-  </si>
-  <si>
-    <t>Skill_EFFECT_DESCE_3001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_EFFECT_DESCE_3002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_EFFECT_DESCE_3003</t>
-  </si>
-  <si>
-    <t>Skill_EFFECT_DESCE_3004</t>
-  </si>
-  <si>
-    <t>Skill_EFFECT_DESCE_3005</t>
-  </si>
-  <si>
-    <t>Skill_EFFECT_DESCE_3006</t>
-  </si>
-  <si>
-    <t>Skill_EFFECT_DESCE_3007</t>
-  </si>
-  <si>
-    <t>Skill_EFFECT_DESCE_3008</t>
-  </si>
-  <si>
-    <t>Skill_EFFECT_DESCE_3009</t>
-  </si>
-  <si>
-    <t>Skill_EFFECT_DESCE_3010</t>
-  </si>
-  <si>
-    <t>스킬 ID</t>
-  </si>
-  <si>
-    <t>스킬 ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 이름</t>
-  </si>
-  <si>
-    <t>스킬 이름</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 비용</t>
-  </si>
-  <si>
-    <t>스킬 비용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 설명</t>
-  </si>
-  <si>
-    <t>스킬 설명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 효과</t>
-  </si>
-  <si>
-    <t>Skill_Effect_Type [Enum테이블]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum</t>
-  </si>
-  <si>
-    <t>스테이터스</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>공격 피해</t>
+  </si>
+  <si>
+    <t>스킬2 지속 턴</t>
+  </si>
+  <si>
+    <t>두 번째 효과의 지속 시간 (턴 단위)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Offensive_Power</t>
@@ -406,6 +258,15 @@
     <t>캐릭터의 공격력을 일정 비율만큼 증가시키는 버프 효과로, 지속 시간 동안 가하는 모든 피해량이 상승합니다.
 또한, 반대로 공격력을 감소시키는 디버프 효과로도 사용되며, 이 경우 지속 시간 동안 가하는 피해량이 감소합니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect2_Target_Type</t>
+  </si>
+  <si>
+    <t>스킬2 적용 타겟</t>
+  </si>
+  <si>
+    <t>두 번째 효과의 대상</t>
   </si>
   <si>
     <t>Defensive_Power</t>
@@ -417,6 +278,22 @@
     <t>캐릭터의 방어력을 일정 비율만큼 증가시켜 받는 피해를 줄이는 방어형 버프 효과입니다.
 지속 시간 동안 적용되며, 방어력 상승은 피해 감소로 이어집니다.
 반대로, 방어력을 감소시키는 디버프 효과로도 사용될 수 있으며, 이 경우 캐릭터는 일정 시간 동안 더 많은 피해를 받게 됩니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect2_Value</t>
+  </si>
+  <si>
+    <t>스킬 2 공격 계수</t>
+  </si>
+  <si>
+    <t>두 번째 공격/효과 수치 또는 계수</t>
+  </si>
+  <si>
+    <t>Cleanse</t>
+  </si>
+  <si>
+    <t>상태이상 해제</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -427,48 +304,187 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Skill_Target [Enum테이블]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상</t>
+    <t>스킬 효과 정의</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬</t>
+  </si>
+  <si>
+    <t>효과1</t>
+  </si>
+  <si>
+    <t>효과1 확률</t>
+  </si>
+  <si>
+    <t>효과 1턴 유지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과1 대상</t>
+  </si>
+  <si>
+    <t>효과1 계수</t>
+  </si>
+  <si>
+    <t>효과2</t>
+  </si>
+  <si>
+    <t>효과2 확률</t>
+  </si>
+  <si>
+    <t>효과2 대상</t>
+  </si>
+  <si>
+    <t>효과2 계수</t>
+  </si>
+  <si>
+    <t>소총병</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3연사 사격</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>적 단일</t>
-  </si>
-  <si>
-    <t>전투 중 적 하나를 단일 대상으로 지정하여 효과를 적용합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일 적을 대상으로 50% 계수의 3회 연속 사격을 가하여 누적 피해를 줍니다.(총 150% 대미지)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>샷건 발사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>적 전체</t>
-  </si>
-  <si>
-    <t>전투에 참여 중인 모든 적에게 동시에 효과를 적용합니다.</t>
-  </si>
-  <si>
-    <t>Self</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 적을 대상으로 100% 피해를 가하는 광역 공격입니다.</t>
+  </si>
+  <si>
+    <t>스나이퍼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>궤도 연발 포격</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2초 후 궤도에서 적 전체에게 150% 피해를 주는 폭격을 가합니다.</t>
+  </si>
+  <si>
+    <t>집중 사격</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일 적에게 200% 피해를 주는 고정 저격 스킬입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염방사병</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염 강화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>본인</t>
-  </si>
-  <si>
-    <t>스킬을 시전한 자신에게만 효과를 적용합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신에게 3턴 동안 화염 속성 공격력이 50% 증가하는 버프를 부여합니다.</t>
+  </si>
+  <si>
+    <t>소이 수류탄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일 적에게 30% 공격력 기반 화염 장판을 생성하고, 3턴간 70%의 화상 피해를 입힙니다.</t>
+  </si>
+  <si>
+    <t>커미사르</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>명예의 깃발</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 전체</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>아군 단일</t>
-  </si>
-  <si>
-    <t>아군 중 하나를 선택하여 단일 대상에게만 효과를 적용합니다.</t>
-  </si>
-  <si>
-    <t>아군 전체</t>
-  </si>
-  <si>
-    <t>모든 아군에게 동시에 효과를 적용합니다.</t>
-  </si>
-  <si>
-    <t>대상에게 직접적인 피해를 입히는 기본적인 공격 효과입니다. 
-계산된 데미지는 방어력에 따라 달라질 수 있습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 전체에게 1턴간 공격력 30% 증가 및 아군 단일에게 상태이상 해제 효과를 부여합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염 충전 사격</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일 적에게 110% 화염 피해를 가하고, 3턴간 70% 확률로 화상 상태를 부여합니다.</t>
+  </si>
+  <si>
+    <t>대전차병</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3회 연속 랜덤 타격</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤 적 3체에게 150% 계수의 연속 피해를 주는 변칙적인 고위력 스킬입니다.</t>
+  </si>
+  <si>
+    <t>강화 탄두 발사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일 적에게 방어력을 50% 감소시키고, 150% 피해를 주는 기술입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Data_Table</t>
+  </si>
+  <si>
+    <t>스킬 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 이름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 비용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 설명</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -480,201 +496,163 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>스킬1 지속 턴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 적중 타겟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 1 공격 계수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 효과</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 적중 확률</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 지속 턴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 적중 타겟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 2 공격 계수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:EFFECT_TYPE:NONE</t>
+  </si>
+  <si>
     <t>double</t>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬1 지속 턴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬1 적중 타겟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 1 공격 계수</t>
-  </si>
-  <si>
-    <t>스킬 1 공격 계수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2 효과</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2 적중 확률</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2 지속 턴</t>
-  </si>
-  <si>
-    <t>스킬2 지속 턴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2 적중 타겟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 2 공격 계수</t>
-  </si>
-  <si>
-    <t>스킬 2 공격 계수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼럼명</t>
-  </si>
-  <si>
-    <t>역할</t>
-  </si>
-  <si>
-    <t>자료형</t>
-  </si>
-  <si>
-    <t>테이블 관계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:TARGET_TYPE:NONE</t>
   </si>
   <si>
     <t>Skill_ID</t>
-  </si>
-  <si>
-    <t>스킬의 고유 식별자. 8자리 ID 규칙을 따름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Skill_Name</t>
-  </si>
-  <si>
-    <t>게임 내 표시될 스킬의 이름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Skill_CostAP</t>
-  </si>
-  <si>
-    <t>스킬 사용 시 소모되는 행동력(AP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Skill_EffectDesc</t>
-  </si>
-  <si>
-    <t>툴팁 등에서 사용될 스킬 효과 설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Effect1_Type</t>
-  </si>
-  <si>
-    <t>enum:Effect1_type:Damage</t>
-  </si>
-  <si>
-    <t>첫 번째 효과의 종류 (예: 데미지, 버프 등)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Effect1_Chance</t>
-  </si>
-  <si>
-    <t>스킬 적용 확률</t>
-  </si>
-  <si>
-    <t>첫 번째 효과가 적용될 확률 (0.0~1.0)</t>
-  </si>
-  <si>
-    <t>스킬 지속 턴</t>
-  </si>
-  <si>
-    <t>첫 번째 효과의 지속 시간 (턴 단위)</t>
-  </si>
-  <si>
-    <t>스킬1 적용 타겟</t>
-  </si>
-  <si>
-    <t>enum:Effect1_Target:Enemy_Single</t>
-  </si>
-  <si>
-    <t>첫 번째 효과의 대상 (예: 적 단일, 아군 전체 등)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Effect1_Value</t>
-  </si>
-  <si>
-    <t>공격력에 곱해지는 배율 또는 고정 수치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Effect2_Type</t>
-  </si>
-  <si>
-    <t>enum:Effect2_type:Damage</t>
-  </si>
-  <si>
-    <t>두 번째 효과의 종류 (선택적, 예: 상태이상 등)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Effect2_Chance</t>
-  </si>
-  <si>
-    <t>두 번째 효과가 적용될 확률 (0.0~1.0)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Effect2_Duration_Turns</t>
-  </si>
-  <si>
-    <t>Effect2_Target</t>
-  </si>
-  <si>
-    <t>스킬2 적용 타겟</t>
-  </si>
-  <si>
-    <t>enum:Effect2_Target:Enemy_Single</t>
-  </si>
-  <si>
-    <t>두 번째 효과의 대상</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Effect2_Value</t>
-  </si>
-  <si>
-    <t>두 번째 공격/효과 수치 또는 계수</t>
-  </si>
-  <si>
-    <t>스킬 효과 정의</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>두 번째 효과의 지속 시간 (턴 단위)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼럼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum:EFFECT1_TYPE:DAMAGE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum:EFFECT2_TYPE:DAMAGE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum:EFFECT1_TARGET:ENEMY_SINGLE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum:EFFECT2_TARGET:ENEMY_SINGLE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_NAME_2001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_EFFECT_DESCE_3001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_NAME_2002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_EFFECT_DESCE_3002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_NAME_2003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_EFFECT_DESCE_3003</t>
+  </si>
+  <si>
+    <t>Skill_NAME_2004</t>
+  </si>
+  <si>
+    <t>Skill_EFFECT_DESCE_3004</t>
+  </si>
+  <si>
+    <t>Skill_NAME_2005</t>
+  </si>
+  <si>
+    <t>Skill_EFFECT_DESCE_3005</t>
+  </si>
+  <si>
+    <t>Skill_NAME_2006</t>
+  </si>
+  <si>
+    <t>Skill_EFFECT_DESCE_3006</t>
+  </si>
+  <si>
+    <t>Skill_NAME_2007</t>
+  </si>
+  <si>
+    <t>Skill_EFFECT_DESCE_3007</t>
+  </si>
+  <si>
+    <t>Skill_NAME_2008</t>
+  </si>
+  <si>
+    <t>Skill_EFFECT_DESCE_3008</t>
+  </si>
+  <si>
+    <t>Skill_NAME_2009</t>
+  </si>
+  <si>
+    <t>Skill_EFFECT_DESCE_3009</t>
+  </si>
+  <si>
+    <t>Skill_NAME_2010</t>
+  </si>
+  <si>
+    <t>Skill_EFFECT_DESCE_3010</t>
   </si>
 </sst>
 </file>
@@ -684,7 +662,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,14 +729,6 @@
       <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -952,17 +922,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
@@ -1041,6 +1000,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1153,13 +1123,13 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1183,40 +1153,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1556,11 +1526,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9A9631-B89D-4555-BF41-645689E096BC}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:J10"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="25.75" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -1578,390 +1548,390 @@
     <col min="18" max="18" width="74.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="27" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>141</v>
+        <v>1</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-    </row>
-    <row r="2" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
+    </row>
+    <row r="2" spans="1:10" ht="50.25" customHeight="1">
       <c r="A2" s="40" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>97</v>
+        <v>9</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>10</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="50.25" customHeight="1">
       <c r="A3" s="40" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" s="50">
-        <v>1</v>
-      </c>
-      <c r="H3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="46">
+        <v>1</v>
+      </c>
+      <c r="H3" s="44" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="50.25" customHeight="1">
       <c r="A4" s="40" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="50">
+        <v>22</v>
+      </c>
+      <c r="G4" s="46">
         <v>2</v>
       </c>
-      <c r="H4" s="48" t="s">
-        <v>17</v>
+      <c r="H4" s="44" t="s">
+        <v>23</v>
       </c>
       <c r="I4" s="42" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="50.25" customHeight="1">
       <c r="A5" s="40" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="50">
+        <v>28</v>
+      </c>
+      <c r="G5" s="46">
         <v>3</v>
       </c>
-      <c r="H5" s="48" t="s">
-        <v>114</v>
+      <c r="H5" s="44" t="s">
+        <v>29</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="50.25" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="G6" s="50">
+        <v>35</v>
+      </c>
+      <c r="G6" s="46">
         <v>4</v>
       </c>
-      <c r="H6" s="48" t="s">
-        <v>20</v>
+      <c r="H6" s="44" t="s">
+        <v>36</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="50.25" customHeight="1">
       <c r="A7" s="40" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="50">
+        <v>42</v>
+      </c>
+      <c r="G7" s="46">
         <v>5</v>
       </c>
-      <c r="H7" s="48" t="s">
-        <v>18</v>
+      <c r="H7" s="44" t="s">
+        <v>43</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="50.25" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="50.25" customHeight="1">
       <c r="A9" s="40" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="50.25" customHeight="1">
       <c r="A10" s="41" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="53"/>
-    </row>
-    <row r="11" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
+    </row>
+    <row r="11" spans="1:10" ht="50.25" customHeight="1">
       <c r="A11" s="40" t="s">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>97</v>
+        <v>58</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>10</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="J11" s="35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="33">
       <c r="A12" s="40" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G12" s="50">
-        <v>1</v>
-      </c>
-      <c r="H12" s="54" t="s">
-        <v>99</v>
+        <v>61</v>
+      </c>
+      <c r="G12" s="46">
+        <v>1</v>
+      </c>
+      <c r="H12" s="47" t="s">
+        <v>62</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="J12" s="39" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="66">
       <c r="A13" s="40" t="s">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" s="50">
+        <v>67</v>
+      </c>
+      <c r="G13" s="46">
         <v>2</v>
       </c>
-      <c r="H13" s="54" t="s">
-        <v>101</v>
+      <c r="H13" s="47" t="s">
+        <v>68</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="J13" s="39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="82.5" customHeight="1">
       <c r="A14" s="40" t="s">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>173</v>
+        <v>51</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="G14" s="50">
+        <v>73</v>
+      </c>
+      <c r="G14" s="46">
         <v>3</v>
       </c>
-      <c r="H14" s="54" t="s">
-        <v>104</v>
+      <c r="H14" s="47" t="s">
+        <v>74</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="99" customHeight="1">
       <c r="A15" s="40" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="G15" s="50">
+        <v>79</v>
+      </c>
+      <c r="G15" s="46">
         <v>4</v>
       </c>
-      <c r="H15" s="54" t="s">
-        <v>19</v>
+      <c r="H15" s="47" t="s">
+        <v>80</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="16:18" ht="97.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="16:18" ht="97.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="16:18" ht="97.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="16:18" ht="97.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="16:18" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="16:18" ht="97.5" customHeight="1"/>
+    <row r="29" spans="16:18" ht="97.5" customHeight="1"/>
+    <row r="30" spans="16:18" ht="97.5" customHeight="1"/>
+    <row r="31" spans="16:18" ht="97.5" customHeight="1"/>
+    <row r="32" spans="16:18">
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G1:H1"/>
     <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1976,7 +1946,7 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="3" width="18.875" customWidth="1"/>
     <col min="4" max="7" width="17.75" customWidth="1"/>
@@ -1985,88 +1955,88 @@
     <col min="13" max="13" width="108" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-    </row>
-    <row r="2" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-    </row>
-    <row r="3" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
+      <c r="A1" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+    </row>
+    <row r="2" spans="1:13" ht="47.25" customHeight="1">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+    </row>
+    <row r="3" spans="1:13" ht="47.25" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="47.25" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="D4" s="19">
         <v>1</v>
@@ -2075,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="G4" s="22">
         <v>0.5</v>
@@ -2086,18 +2056,18 @@
       <c r="K4" s="21"/>
       <c r="L4" s="22"/>
       <c r="M4" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="47.25" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="D5" s="19">
         <v>1</v>
@@ -2106,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="G5" s="22">
         <v>1</v>
@@ -2117,18 +2087,18 @@
       <c r="K5" s="21"/>
       <c r="L5" s="22"/>
       <c r="M5" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="47.25" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="D6" s="19">
         <v>1</v>
@@ -2137,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="G6" s="22">
         <v>1.5</v>
@@ -2148,18 +2118,18 @@
       <c r="K6" s="21"/>
       <c r="L6" s="22"/>
       <c r="M6" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="47.25" customHeight="1">
       <c r="A7" s="16" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="D7" s="19">
         <v>1</v>
@@ -2168,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="G7" s="22">
         <v>2</v>
@@ -2179,18 +2149,18 @@
       <c r="K7" s="21"/>
       <c r="L7" s="22"/>
       <c r="M7" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="47.25" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="D8" s="19">
         <v>1</v>
@@ -2199,7 +2169,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="G8" s="22">
         <v>0.5</v>
@@ -2210,18 +2180,18 @@
       <c r="K8" s="21"/>
       <c r="L8" s="22"/>
       <c r="M8" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="47.25" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="D9" s="19">
         <v>1</v>
@@ -2230,13 +2200,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="G9" s="22">
         <v>0.3</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="I9" s="22">
         <v>1</v>
@@ -2245,24 +2215,24 @@
         <v>3</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="L9" s="22">
         <v>0.7</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="47.25" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="D10" s="19">
         <v>1</v>
@@ -2271,13 +2241,13 @@
         <v>1</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="G10" s="22">
         <v>0.3</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="I10" s="22">
         <v>1</v>
@@ -2286,22 +2256,22 @@
         <v>0</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="L10" s="22"/>
       <c r="M10" s="24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="47.25" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="D11" s="19">
         <v>1</v>
@@ -2310,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="G11" s="22">
         <v>1.1000000000000001</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="I11" s="22">
         <v>1</v>
@@ -2325,24 +2295,24 @@
         <v>3</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="L11" s="22">
         <v>0.7</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="63" customHeight="1">
       <c r="A12" s="16" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="D12" s="19">
         <v>1</v>
@@ -2351,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="G12" s="22">
         <v>1.5</v>
@@ -2362,18 +2332,18 @@
       <c r="K12" s="21"/>
       <c r="L12" s="22"/>
       <c r="M12" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="63" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="D13" s="19">
         <v>1</v>
@@ -2382,13 +2352,13 @@
         <v>2</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="G13" s="22">
         <v>-0.5</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="I13" s="22">
         <v>1</v>
@@ -2397,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="L13" s="22">
         <v>1.5</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2419,11 +2389,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CBDFF2-7524-4AD5-B513-A4E52FA90550}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="2" width="23.625" customWidth="1"/>
@@ -2441,9 +2411,9 @@
     <col min="14" max="15" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2460,150 +2430,150 @@
       <c r="N1" s="1"/>
       <c r="O1" s="30"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="35" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L2" s="36" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M2" s="36" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="N2" s="36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="31" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>183</v>
+        <v>144</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>147</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>149</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="5">
         <v>20010001</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -2626,18 +2596,18 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="5">
         <v>20010002</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -2660,18 +2630,18 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="5">
         <v>20020001</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
@@ -2694,18 +2664,18 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="5">
         <v>20020002</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
@@ -2728,18 +2698,18 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="5">
         <v>20030001</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="E9" s="6">
         <v>2</v>
@@ -2762,18 +2732,18 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="5">
         <v>20030002</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
@@ -2806,18 +2776,18 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="5">
         <v>20040001</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="E11" s="6">
         <v>2</v>
@@ -2848,18 +2818,18 @@
       </c>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="5">
         <v>20040002</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
@@ -2892,18 +2862,18 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="5">
         <v>20050001</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
@@ -2926,18 +2896,18 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="5">
         <v>20050002</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="E14" s="6">
         <v>3</v>
